--- a/Relay Board/Relay_Board - MDP/WDY_Relay_Board_Part_List.xlsx
+++ b/Relay Board/Relay_Board - MDP/WDY_Relay_Board_Part_List.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\ExMachina\repos\WDY-electronics\Relay Board\Relay_Board - Fabrication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\ExMachina\repos\WDY-electronics\Relay Board\Relay_Board - MDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PdG" sheetId="2" r:id="rId1"/>
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Value</t>
   </si>
@@ -196,6 +193,36 @@
   </si>
   <si>
     <t>Part List</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>22-05-7028</t>
+  </si>
+  <si>
+    <t>22-05-7038</t>
+  </si>
+  <si>
+    <t>22-05-7048</t>
+  </si>
+  <si>
+    <t>MC0603B104K250CT</t>
+  </si>
+  <si>
+    <t>OVS-0603</t>
+  </si>
+  <si>
+    <t>G6K-2G-Y 24DC</t>
+  </si>
+  <si>
+    <t>MCMR06X1000FTL</t>
+  </si>
+  <si>
+    <t>MCMR06X4701FTL</t>
+  </si>
+  <si>
+    <t>MCMR06X1501FTL</t>
   </si>
 </sst>
 </file>
@@ -246,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -265,11 +292,20 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -382,18 +418,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F13"/>
-  <sortState ref="A2:F13">
-    <sortCondition ref="E1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G13"/>
+  <sortState ref="A2:G13">
+    <sortCondition ref="D1:D13"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Qty" dataDxfId="5"/>
-    <tableColumn id="2" name="Value" dataDxfId="4"/>
-    <tableColumn id="3" name="Device" dataDxfId="3"/>
-    <tableColumn id="4" name="Package" dataDxfId="2"/>
-    <tableColumn id="5" name="Parts" dataDxfId="1"/>
-    <tableColumn id="6" name="Description" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Qty" dataDxfId="6"/>
+    <tableColumn id="2" name="Value" dataDxfId="5"/>
+    <tableColumn id="3" name="Device" dataDxfId="4"/>
+    <tableColumn id="4" name="Package" dataDxfId="3"/>
+    <tableColumn id="5" name="Parts" dataDxfId="2"/>
+    <tableColumn id="6" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" name="MPN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -698,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -746,7 +783,7 @@
       </c>
       <c r="B10" s="3">
         <f ca="1">TODAY()</f>
-        <v>42753</v>
+        <v>42760</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +818,7 @@
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
@@ -816,133 +853,145 @@
       <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="4"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2007041</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2007069</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2007069</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2007100</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2007041</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2007100</v>
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -966,33 +1015,37 @@
       <c r="F7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1757242</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1016,8 +1069,10 @@
       <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1041,8 +1096,10 @@
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1066,58 +1123,64 @@
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1169,8 +1232,11 @@
       <c r="K17" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
